--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.011420-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.011420-2.xlsx_with_dialog_acts.xlsx
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5141,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8253,12 +8253,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8295,12 +8295,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8589,12 +8589,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9639,12 +9639,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9849,12 +9849,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10143,12 +10143,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10357,12 +10357,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10399,12 +10399,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10567,12 +10567,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11591,12 +11591,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12519,12 +12519,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12981,12 +12981,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13065,12 +13065,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13149,12 +13149,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13191,12 +13191,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
